--- a/Casos de prueba - Proyecto Final Python.xlsx
+++ b/Casos de prueba - Proyecto Final Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488531B8-36F8-417A-BDA4-42DA6308FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74896E3-99E9-47AF-9F12-D1129F534749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEEE5288-604D-4FE8-A161-963A1A906DEA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Prueba #</t>
   </si>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -245,10 +252,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -291,8 +299,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1117,7 +1127,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,7 +1139,7 @@
     <col min="5" max="5" width="57.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1182,8 +1192,11 @@
       <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="G5" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -1202,8 +1215,11 @@
       <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="G6" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -1222,8 +1238,11 @@
       <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="G7" s="26" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>1</v>
       </c>
@@ -1242,8 +1261,11 @@
       <c r="F8" s="17" t="s">
         <v>21</v>
       </c>
+      <c r="G8" s="26" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>1</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="F9" s="23" t="s">
         <v>13</v>
       </c>
+      <c r="G9" s="26" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1282,8 +1307,11 @@
       <c r="F10" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G10" s="26" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1307,6 +1335,14 @@
       <c r="H108" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" location="Hoja1!A13" display="Cargar Avatar" xr:uid="{15D6598F-A1CD-43F8-A024-64EBC54DB967}"/>
+    <hyperlink ref="G6" location="Hoja1!A13" display="Cargar Avatar" xr:uid="{DBA2D8C4-7753-42E3-BEEC-BAE144F3AC84}"/>
+    <hyperlink ref="G7" location="Hoja1!A53" display="Publicar con ckeditor" xr:uid="{A8344A56-95DB-4A52-96CB-058709EE1A31}"/>
+    <hyperlink ref="G8" location="Hoja1!A75" display="Editar Perfil de usuario" xr:uid="{927D7783-58DE-4C11-B559-E468AB3D3B02}"/>
+    <hyperlink ref="G9" location="Hoja1!A97" display="Cargar conversaciones - App Mensajes" xr:uid="{9225EF2E-2EC8-42BD-8B9E-8C2AC6046FEE}"/>
+    <hyperlink ref="G10" location="Hoja1!A97" display="Cargar conversaciones - App Mensajes" xr:uid="{2060985C-40FA-460D-BC56-A9569D595A10}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
